--- a/attached_assets/UNIDADES_DE_MEDIDA_EN_GENERAL_1765569980730.xlsx
+++ b/attached_assets/UNIDADES_DE_MEDIDA_EN_GENERAL_1765569980730.xlsx
@@ -2,44 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abenincasa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\proyectos\clone_ag__prueba_pytoflutter_importayaia_v2\referencia-ImportaYAia-python\attached_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220BD6EE-96C2-4323-9662-89D061D569AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD60B5F-9659-42E2-ACA2-2452D75A0511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{3A8131AC-7E4A-444C-ACBD-B4C80421B2B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3A8131AC-7E4A-444C-ACBD-B4C80421B2B6}"/>
   </bookViews>
   <sheets>
     <sheet name="WEIGHT UNITS" sheetId="1" r:id="rId1"/>
     <sheet name="VOLUME UNITS" sheetId="3" r:id="rId2"/>
     <sheet name="Container &amp; ULDs" sheetId="4" r:id="rId3"/>
-    <sheet name="Package Types" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>Código ISO (App Internal)</t>
   </si>
@@ -301,28 +289,22 @@
     <t>AEREO</t>
   </si>
   <si>
-    <t>30 CBM / 27 Tons</t>
-  </si>
-  <si>
-    <t>62 CBM / 27 Tons</t>
-  </si>
-  <si>
-    <t>68 CBM / 27Tons</t>
-  </si>
-  <si>
-    <t>&lt; 25 CBM</t>
-  </si>
-  <si>
-    <t>~2.99 CBM (Aviones de pasajeros)</t>
-  </si>
-  <si>
     <t>~3.00 CBM (Cargueros/Aviones grandes)</t>
   </si>
   <si>
-    <t>4. Códigos de Bultos (Package Types - UNECE Rec 21)</t>
-  </si>
-  <si>
-    <t>Uso: Obligatorio para la carta de porte (Bill of Lading / AWB). Sin esto, la aduana rechaza la declaración.</t>
+    <t>28-29 CBM / 27 Tons</t>
+  </si>
+  <si>
+    <t>62-65 CBM / 27 Tons</t>
+  </si>
+  <si>
+    <t>68-69 CBM / 27Tons</t>
+  </si>
+  <si>
+    <t>&lt; 15 CBM</t>
+  </si>
+  <si>
+    <t>~2.00 CBM (Aviones de pasajeros)</t>
   </si>
 </sst>
 </file>
@@ -914,133 +896,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDF681D-A3D1-4DF7-91B7-723420BCE231}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1049,7 +1031,7 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1084,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1116,7 +1098,7 @@
         <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1130,7 +1112,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1144,7 +1126,7 @@
         <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1158,7 +1140,7 @@
         <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1172,7 +1154,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.3">
@@ -1180,155 +1162,6 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FAF89B-43D3-4E6D-9A06-1887BCB5CD25}">
-  <dimension ref="B2:E15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="41.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="2:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
